--- a/JeuxEssais.xlsx
+++ b/JeuxEssais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MM\source\repos\POO-Csharp-2.2DebogageNo1-Solution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84613.RWIN\source\repos\vivgxojo\POO-Csharp-2.2DebogageNo1-Solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C235823-7F6F-4EFF-A072-4C38A47F5140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EFEDE9-004E-40CC-914E-13B2BF937F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6864" yWindow="1656" windowWidth="15024" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>Entrées</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>59.9</t>
+  </si>
+  <si>
+    <t>terminé</t>
   </si>
 </sst>
 </file>
@@ -135,10 +138,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,42 +425,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -510,14 +513,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>-1</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="1"/>
       <c r="D3" t="s">
         <v>11</v>
       </c>
@@ -543,7 +546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -568,11 +571,14 @@
       <c r="I4">
         <v>0</v>
       </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
       <c r="K4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -597,37 +603,43 @@
       <c r="I5">
         <v>100</v>
       </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
       <c r="K5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>101</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>-2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D8">
@@ -647,16 +659,19 @@
       </c>
       <c r="I8">
         <v>0</v>
+      </c>
+      <c r="J8">
+        <v>59.44</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D9">
@@ -676,16 +691,19 @@
       </c>
       <c r="I9">
         <v>100</v>
+      </c>
+      <c r="J9">
+        <v>59.9</v>
       </c>
       <c r="K9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>60</v>
       </c>
       <c r="D10">
@@ -705,12 +723,15 @@
       </c>
       <c r="I10">
         <v>100</v>
+      </c>
+      <c r="J10">
+        <v>60</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -721,7 +742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -732,11 +753,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
